--- a/results/mp/logistic/corona/confidence/42/stop-words-topk-masking-0.15/avg_0.002_scores.xlsx
+++ b/results/mp/logistic/corona/confidence/42/stop-words-topk-masking-0.15/avg_0.002_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="98">
   <si>
     <t>anchor score</t>
   </si>
@@ -40,105 +40,114 @@
     <t>name</t>
   </si>
   <si>
+    <t>arrested</t>
+  </si>
+  <si>
+    <t>death</t>
+  </si>
+  <si>
+    <t>crude</t>
+  </si>
+  <si>
+    <t>crisis</t>
+  </si>
+  <si>
+    <t>forced</t>
+  </si>
+  <si>
+    <t>fraud</t>
+  </si>
+  <si>
     <t>kill</t>
   </si>
   <si>
-    <t>crude</t>
-  </si>
-  <si>
-    <t>crisis</t>
-  </si>
-  <si>
-    <t>fraud</t>
+    <t>died</t>
+  </si>
+  <si>
+    <t>warning</t>
+  </si>
+  <si>
+    <t>die</t>
+  </si>
+  <si>
+    <t>infected</t>
   </si>
   <si>
     <t>war</t>
   </si>
   <si>
-    <t>forced</t>
-  </si>
-  <si>
-    <t>die</t>
-  </si>
-  <si>
-    <t>died</t>
-  </si>
-  <si>
-    <t>warning</t>
+    <t>lowest</t>
+  </si>
+  <si>
+    <t>hell</t>
   </si>
   <si>
     <t>collapse</t>
   </si>
   <si>
-    <t>hell</t>
-  </si>
-  <si>
-    <t>uncertainty</t>
+    <t>sc</t>
   </si>
   <si>
     <t>drop</t>
   </si>
   <si>
-    <t>lowest</t>
-  </si>
-  <si>
-    <t>sc</t>
+    <t>fears</t>
+  </si>
+  <si>
+    <t>panic</t>
   </si>
   <si>
     <t>problem</t>
   </si>
   <si>
-    <t>panic</t>
-  </si>
-  <si>
-    <t>fears</t>
+    <t>falling</t>
   </si>
   <si>
     <t>cancelled</t>
   </si>
   <si>
+    <t>anxiety</t>
+  </si>
+  <si>
+    <t>low</t>
+  </si>
+  <si>
     <t>recession</t>
   </si>
   <si>
-    <t>low</t>
-  </si>
-  <si>
     <t>shit</t>
   </si>
   <si>
-    <t>falling</t>
+    <t>emergency</t>
+  </si>
+  <si>
+    <t>fuck</t>
+  </si>
+  <si>
+    <t>lower</t>
   </si>
   <si>
     <t>shame</t>
   </si>
   <si>
-    <t>lower</t>
-  </si>
-  <si>
-    <t>emergency</t>
-  </si>
-  <si>
-    <t>fuck</t>
+    <t>avoid</t>
   </si>
   <si>
     <t>cut</t>
   </si>
   <si>
-    <t>avoid</t>
-  </si>
-  <si>
     <t>stop</t>
   </si>
   <si>
+    <t>risk</t>
+  </si>
+  <si>
+    <t>empty</t>
+  </si>
+  <si>
     <t>fight</t>
   </si>
   <si>
-    <t>risk</t>
-  </si>
-  <si>
-    <t>empty</t>
-  </si>
-  <si>
     <t>demand</t>
   </si>
   <si>
@@ -154,85 +163,109 @@
     <t>negative</t>
   </si>
   <si>
+    <t>best</t>
+  </si>
+  <si>
     <t>love</t>
   </si>
   <si>
-    <t>best</t>
-  </si>
-  <si>
     <t>free</t>
   </si>
   <si>
+    <t>friend</t>
+  </si>
+  <si>
+    <t>happy</t>
+  </si>
+  <si>
     <t>great</t>
   </si>
   <si>
+    <t>hand</t>
+  </si>
+  <si>
+    <t>positive</t>
+  </si>
+  <si>
+    <t>heroes</t>
+  </si>
+  <si>
+    <t>friends</t>
+  </si>
+  <si>
+    <t>thank</t>
+  </si>
+  <si>
+    <t>confidence</t>
+  </si>
+  <si>
+    <t>good</t>
+  </si>
+  <si>
+    <t>thanks</t>
+  </si>
+  <si>
+    <t>safe</t>
+  </si>
+  <si>
+    <t>interesting</t>
+  </si>
+  <si>
+    <t>nice</t>
+  </si>
+  <si>
+    <t>support</t>
+  </si>
+  <si>
+    <t>amazing</t>
+  </si>
+  <si>
+    <t>fresh</t>
+  </si>
+  <si>
+    <t>god</t>
+  </si>
+  <si>
+    <t>join</t>
+  </si>
+  <si>
     <t>special</t>
   </si>
   <si>
-    <t>interesting</t>
-  </si>
-  <si>
-    <t>hand</t>
-  </si>
-  <si>
-    <t>positive</t>
-  </si>
-  <si>
-    <t>support</t>
-  </si>
-  <si>
-    <t>happy</t>
-  </si>
-  <si>
-    <t>thank</t>
-  </si>
-  <si>
-    <t>heroes</t>
-  </si>
-  <si>
-    <t>good</t>
-  </si>
-  <si>
-    <t>thanks</t>
-  </si>
-  <si>
-    <t>safe</t>
-  </si>
-  <si>
-    <t>fresh</t>
-  </si>
-  <si>
-    <t>confidence</t>
-  </si>
-  <si>
     <t>better</t>
   </si>
   <si>
-    <t>join</t>
-  </si>
-  <si>
-    <t>nice</t>
+    <t>strong</t>
   </si>
   <si>
     <t>like</t>
   </si>
   <si>
+    <t>gt</t>
+  </si>
+  <si>
+    <t>save</t>
+  </si>
+  <si>
+    <t>please</t>
+  </si>
+  <si>
+    <t>true</t>
+  </si>
+  <si>
+    <t>help</t>
+  </si>
+  <si>
+    <t>well</t>
+  </si>
+  <si>
+    <t>relief</t>
+  </si>
+  <si>
     <t>hope</t>
   </si>
   <si>
-    <t>relief</t>
-  </si>
-  <si>
-    <t>help</t>
-  </si>
-  <si>
-    <t>save</t>
-  </si>
-  <si>
-    <t>well</t>
-  </si>
-  <si>
-    <t>please</t>
+    <t>giving</t>
   </si>
   <si>
     <t>ready</t>
@@ -241,34 +274,40 @@
     <t>share</t>
   </si>
   <si>
-    <t>gt</t>
+    <t>growth</t>
+  </si>
+  <si>
+    <t>alert</t>
   </si>
   <si>
     <t>care</t>
   </si>
   <si>
+    <t>safety</t>
+  </si>
+  <si>
     <t>important</t>
   </si>
   <si>
-    <t>alert</t>
-  </si>
-  <si>
-    <t>safety</t>
-  </si>
-  <si>
     <t>protect</t>
   </si>
   <si>
+    <t>give</t>
+  </si>
+  <si>
     <t>helping</t>
   </si>
   <si>
+    <t>sure</t>
+  </si>
+  <si>
     <t>increase</t>
   </si>
   <si>
     <t>check</t>
   </si>
   <si>
-    <t>corona</t>
+    <t>shop</t>
   </si>
 </sst>
 </file>
@@ -626,7 +665,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q41"/>
+  <dimension ref="A1:Q51"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -634,10 +673,10 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="J1" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -695,13 +734,13 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>0.8421052631578947</v>
+        <v>0.9333333333333333</v>
       </c>
       <c r="C3">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D3">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -713,19 +752,19 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="K3">
-        <v>0.9347826086956522</v>
+        <v>0.9491525423728814</v>
       </c>
       <c r="L3">
-        <v>43</v>
+        <v>56</v>
       </c>
       <c r="M3">
-        <v>43</v>
+        <v>56</v>
       </c>
       <c r="N3">
         <v>1</v>
@@ -745,13 +784,13 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.8235294117647058</v>
+        <v>0.8666666666666667</v>
       </c>
       <c r="C4">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="D4">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -763,19 +802,19 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="K4">
-        <v>0.9322033898305084</v>
+        <v>0.9130434782608695</v>
       </c>
       <c r="L4">
-        <v>55</v>
+        <v>42</v>
       </c>
       <c r="M4">
-        <v>55</v>
+        <v>42</v>
       </c>
       <c r="N4">
         <v>1</v>
@@ -795,13 +834,13 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.815068493150685</v>
+        <v>0.8235294117647058</v>
       </c>
       <c r="C5">
-        <v>238</v>
+        <v>28</v>
       </c>
       <c r="D5">
-        <v>238</v>
+        <v>28</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -813,10 +852,10 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>54</v>
+        <v>6</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="K5">
         <v>0.9083333333333333</v>
@@ -845,13 +884,13 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.8055555555555556</v>
+        <v>0.7945205479452054</v>
       </c>
       <c r="C6">
-        <v>29</v>
+        <v>232</v>
       </c>
       <c r="D6">
-        <v>29</v>
+        <v>232</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -863,19 +902,19 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>7</v>
+        <v>60</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="K6">
-        <v>0.875</v>
+        <v>0.8947368421052632</v>
       </c>
       <c r="L6">
-        <v>98</v>
+        <v>17</v>
       </c>
       <c r="M6">
-        <v>98</v>
+        <v>17</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -887,7 +926,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>14</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -895,13 +934,13 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.7894736842105263</v>
+        <v>0.7586206896551724</v>
       </c>
       <c r="C7">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="D7">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -913,19 +952,19 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="K7">
-        <v>0.8611111111111112</v>
+        <v>0.8846153846153846</v>
       </c>
       <c r="L7">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="M7">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -937,7 +976,7 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -945,13 +984,13 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.7586206896551724</v>
+        <v>0.75</v>
       </c>
       <c r="C8">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="D8">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -963,19 +1002,19 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="K8">
-        <v>0.8484848484848485</v>
+        <v>0.8571428571428571</v>
       </c>
       <c r="L8">
-        <v>28</v>
+        <v>96</v>
       </c>
       <c r="M8">
-        <v>28</v>
+        <v>96</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -987,7 +1026,7 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>5</v>
+        <v>16</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -995,13 +1034,13 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>0.7297297297297297</v>
+        <v>0.7368421052631579</v>
       </c>
       <c r="C9">
-        <v>27</v>
+        <v>14</v>
       </c>
       <c r="D9">
-        <v>27</v>
+        <v>14</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -1013,19 +1052,19 @@
         <v>0</v>
       </c>
       <c r="H9">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="K9">
-        <v>0.8328981723237598</v>
+        <v>0.804177545691906</v>
       </c>
       <c r="L9">
-        <v>319</v>
+        <v>308</v>
       </c>
       <c r="M9">
-        <v>319</v>
+        <v>308</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -1037,7 +1076,7 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>64</v>
+        <v>75</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -1045,13 +1084,13 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>0.6923076923076923</v>
+        <v>0.7307692307692307</v>
       </c>
       <c r="C10">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D10">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -1063,19 +1102,19 @@
         <v>0</v>
       </c>
       <c r="H10">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="K10">
-        <v>0.8275862068965517</v>
+        <v>0.7931034482758621</v>
       </c>
       <c r="L10">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="M10">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -1087,7 +1126,7 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1095,13 +1134,13 @@
         <v>16</v>
       </c>
       <c r="B11">
-        <v>0.68</v>
+        <v>0.72</v>
       </c>
       <c r="C11">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D11">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -1113,19 +1152,19 @@
         <v>0</v>
       </c>
       <c r="H11">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="K11">
-        <v>0.8113207547169812</v>
+        <v>0.7872340425531915</v>
       </c>
       <c r="L11">
-        <v>86</v>
+        <v>37</v>
       </c>
       <c r="M11">
-        <v>86</v>
+        <v>37</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -1137,7 +1176,7 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>20</v>
+        <v>10</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1145,13 +1184,13 @@
         <v>17</v>
       </c>
       <c r="B12">
-        <v>0.6666666666666666</v>
+        <v>0.7027027027027027</v>
       </c>
       <c r="C12">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="D12">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -1163,19 +1202,19 @@
         <v>0</v>
       </c>
       <c r="H12">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="K12">
-        <v>0.8076923076923077</v>
+        <v>0.7857142857142857</v>
       </c>
       <c r="L12">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="M12">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -1187,7 +1226,7 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1195,13 +1234,13 @@
         <v>18</v>
       </c>
       <c r="B13">
-        <v>0.6521739130434783</v>
+        <v>0.6842105263157895</v>
       </c>
       <c r="C13">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D13">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E13">
         <v>0</v>
@@ -1213,19 +1252,19 @@
         <v>0</v>
       </c>
       <c r="H13">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="K13">
-        <v>0.7890625</v>
+        <v>0.78125</v>
       </c>
       <c r="L13">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="M13">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -1237,7 +1276,7 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1245,13 +1284,13 @@
         <v>19</v>
       </c>
       <c r="B14">
-        <v>0.6086956521739131</v>
+        <v>0.6842105263157895</v>
       </c>
       <c r="C14">
-        <v>14</v>
+        <v>26</v>
       </c>
       <c r="D14">
-        <v>14</v>
+        <v>26</v>
       </c>
       <c r="E14">
         <v>0</v>
@@ -1263,19 +1302,19 @@
         <v>0</v>
       </c>
       <c r="H14">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="K14">
-        <v>0.7872340425531915</v>
+        <v>0.7777777777777778</v>
       </c>
       <c r="L14">
-        <v>37</v>
+        <v>28</v>
       </c>
       <c r="M14">
-        <v>37</v>
+        <v>28</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -1287,7 +1326,7 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -1295,13 +1334,13 @@
         <v>20</v>
       </c>
       <c r="B15">
-        <v>0.5932203389830508</v>
+        <v>0.6521739130434783</v>
       </c>
       <c r="C15">
-        <v>35</v>
+        <v>15</v>
       </c>
       <c r="D15">
-        <v>35</v>
+        <v>15</v>
       </c>
       <c r="E15">
         <v>0</v>
@@ -1313,19 +1352,19 @@
         <v>0</v>
       </c>
       <c r="H15">
-        <v>24</v>
+        <v>8</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="K15">
-        <v>0.78125</v>
+        <v>0.76875</v>
       </c>
       <c r="L15">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="M15">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -1337,7 +1376,7 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>35</v>
+        <v>37</v>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -1345,13 +1384,13 @@
         <v>21</v>
       </c>
       <c r="B16">
-        <v>0.5652173913043478</v>
+        <v>0.6521739130434783</v>
       </c>
       <c r="C16">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D16">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="E16">
         <v>0</v>
@@ -1363,19 +1402,19 @@
         <v>0</v>
       </c>
       <c r="H16">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="K16">
-        <v>0.7804878048780488</v>
+        <v>0.7682926829268293</v>
       </c>
       <c r="L16">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="M16">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="N16">
         <v>1</v>
@@ -1387,7 +1426,7 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="17" spans="1:17">
@@ -1395,13 +1434,13 @@
         <v>22</v>
       </c>
       <c r="B17">
-        <v>0.5555555555555556</v>
+        <v>0.6333333333333333</v>
       </c>
       <c r="C17">
-        <v>105</v>
+        <v>19</v>
       </c>
       <c r="D17">
-        <v>105</v>
+        <v>19</v>
       </c>
       <c r="E17">
         <v>0</v>
@@ -1413,19 +1452,19 @@
         <v>0</v>
       </c>
       <c r="H17">
-        <v>84</v>
+        <v>11</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="K17">
-        <v>0.7605633802816901</v>
+        <v>0.7676056338028169</v>
       </c>
       <c r="L17">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="M17">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="N17">
         <v>1</v>
@@ -1437,7 +1476,7 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="18" spans="1:17">
@@ -1445,13 +1484,13 @@
         <v>23</v>
       </c>
       <c r="B18">
-        <v>0.5333333333333333</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="C18">
-        <v>16</v>
+        <v>108</v>
       </c>
       <c r="D18">
-        <v>16</v>
+        <v>108</v>
       </c>
       <c r="E18">
         <v>0</v>
@@ -1463,19 +1502,19 @@
         <v>0</v>
       </c>
       <c r="H18">
-        <v>14</v>
+        <v>81</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="K18">
-        <v>0.7291666666666666</v>
+        <v>0.7575757575757576</v>
       </c>
       <c r="L18">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="M18">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="N18">
         <v>1</v>
@@ -1487,7 +1526,7 @@
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>13</v>
+        <v>8</v>
       </c>
     </row>
     <row r="19" spans="1:17">
@@ -1495,13 +1534,13 @@
         <v>24</v>
       </c>
       <c r="B19">
-        <v>0.5193798449612403</v>
+        <v>0.5423728813559322</v>
       </c>
       <c r="C19">
-        <v>268</v>
+        <v>32</v>
       </c>
       <c r="D19">
-        <v>268</v>
+        <v>32</v>
       </c>
       <c r="E19">
         <v>0</v>
@@ -1513,19 +1552,19 @@
         <v>0</v>
       </c>
       <c r="H19">
-        <v>248</v>
+        <v>27</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="K19">
-        <v>0.7222222222222222</v>
+        <v>0.7407407407407407</v>
       </c>
       <c r="L19">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="M19">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="N19">
         <v>1</v>
@@ -1537,7 +1576,7 @@
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="20" spans="1:17">
@@ -1566,16 +1605,16 @@
         <v>25</v>
       </c>
       <c r="J20" s="1" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="K20">
-        <v>0.6825396825396826</v>
+        <v>0.7358490566037735</v>
       </c>
       <c r="L20">
-        <v>43</v>
+        <v>78</v>
       </c>
       <c r="M20">
-        <v>43</v>
+        <v>78</v>
       </c>
       <c r="N20">
         <v>1</v>
@@ -1587,7 +1626,7 @@
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>20</v>
+        <v>28</v>
       </c>
     </row>
     <row r="21" spans="1:17">
@@ -1595,38 +1634,38 @@
         <v>26</v>
       </c>
       <c r="B21">
-        <v>0.5</v>
+        <v>0.501937984496124</v>
       </c>
       <c r="C21">
+        <v>259</v>
+      </c>
+      <c r="D21">
+        <v>259</v>
+      </c>
+      <c r="E21">
+        <v>0</v>
+      </c>
+      <c r="F21">
+        <v>1</v>
+      </c>
+      <c r="G21" t="b">
+        <v>0</v>
+      </c>
+      <c r="H21">
+        <v>257</v>
+      </c>
+      <c r="J21" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="K21">
+        <v>0.7222222222222222</v>
+      </c>
+      <c r="L21">
         <v>13</v>
       </c>
-      <c r="D21">
+      <c r="M21">
         <v>13</v>
       </c>
-      <c r="E21">
-        <v>0</v>
-      </c>
-      <c r="F21">
-        <v>1</v>
-      </c>
-      <c r="G21" t="b">
-        <v>0</v>
-      </c>
-      <c r="H21">
-        <v>13</v>
-      </c>
-      <c r="J21" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="K21">
-        <v>0.6744186046511628</v>
-      </c>
-      <c r="L21">
-        <v>29</v>
-      </c>
-      <c r="M21">
-        <v>29</v>
-      </c>
       <c r="N21">
         <v>1</v>
       </c>
@@ -1637,7 +1676,7 @@
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>14</v>
+        <v>5</v>
       </c>
     </row>
     <row r="22" spans="1:17">
@@ -1645,7 +1684,7 @@
         <v>27</v>
       </c>
       <c r="B22">
-        <v>0.4838709677419355</v>
+        <v>0.5</v>
       </c>
       <c r="C22">
         <v>15</v>
@@ -1663,19 +1702,19 @@
         <v>0</v>
       </c>
       <c r="H22">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="J22" s="1" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="K22">
-        <v>0.6666666666666666</v>
+        <v>0.7083333333333334</v>
       </c>
       <c r="L22">
-        <v>18</v>
+        <v>34</v>
       </c>
       <c r="M22">
-        <v>18</v>
+        <v>34</v>
       </c>
       <c r="N22">
         <v>1</v>
@@ -1687,7 +1726,7 @@
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>9</v>
+        <v>14</v>
       </c>
     </row>
     <row r="23" spans="1:17">
@@ -1695,13 +1734,13 @@
         <v>28</v>
       </c>
       <c r="B23">
-        <v>0.4765100671140939</v>
+        <v>0.5</v>
       </c>
       <c r="C23">
-        <v>71</v>
+        <v>20</v>
       </c>
       <c r="D23">
-        <v>71</v>
+        <v>20</v>
       </c>
       <c r="E23">
         <v>0</v>
@@ -1713,19 +1752,19 @@
         <v>0</v>
       </c>
       <c r="H23">
-        <v>78</v>
+        <v>20</v>
       </c>
       <c r="J23" s="1" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="K23">
-        <v>0.6352941176470588</v>
+        <v>0.7083333333333334</v>
       </c>
       <c r="L23">
-        <v>216</v>
+        <v>17</v>
       </c>
       <c r="M23">
-        <v>216</v>
+        <v>17</v>
       </c>
       <c r="N23">
         <v>1</v>
@@ -1737,7 +1776,7 @@
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>124</v>
+        <v>7</v>
       </c>
     </row>
     <row r="24" spans="1:17">
@@ -1745,13 +1784,13 @@
         <v>29</v>
       </c>
       <c r="B24">
-        <v>0.4615384615384616</v>
+        <v>0.5</v>
       </c>
       <c r="C24">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="D24">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="E24">
         <v>0</v>
@@ -1763,19 +1802,19 @@
         <v>0</v>
       </c>
       <c r="H24">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="J24" s="1" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="K24">
-        <v>0.6</v>
+        <v>0.6976744186046512</v>
       </c>
       <c r="L24">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="M24">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="N24">
         <v>1</v>
@@ -1787,7 +1826,7 @@
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>26</v>
+        <v>13</v>
       </c>
     </row>
     <row r="25" spans="1:17">
@@ -1795,13 +1834,13 @@
         <v>30</v>
       </c>
       <c r="B25">
-        <v>0.425</v>
+        <v>0.4838709677419355</v>
       </c>
       <c r="C25">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D25">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E25">
         <v>0</v>
@@ -1813,19 +1852,19 @@
         <v>0</v>
       </c>
       <c r="H25">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="J25" s="1" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="K25">
-        <v>0.6</v>
+        <v>0.6944444444444444</v>
       </c>
       <c r="L25">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="M25">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="N25">
         <v>1</v>
@@ -1837,7 +1876,7 @@
         <v>0</v>
       </c>
       <c r="Q25">
-        <v>20</v>
+        <v>11</v>
       </c>
     </row>
     <row r="26" spans="1:17">
@@ -1845,13 +1884,13 @@
         <v>31</v>
       </c>
       <c r="B26">
-        <v>0.4054054054054054</v>
+        <v>0.4832214765100671</v>
       </c>
       <c r="C26">
-        <v>15</v>
+        <v>72</v>
       </c>
       <c r="D26">
-        <v>15</v>
+        <v>72</v>
       </c>
       <c r="E26">
         <v>0</v>
@@ -1863,31 +1902,31 @@
         <v>0</v>
       </c>
       <c r="H26">
-        <v>22</v>
+        <v>77</v>
       </c>
       <c r="J26" s="1" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="K26">
-        <v>0.5952380952380952</v>
+        <v>0.6825396825396826</v>
       </c>
       <c r="L26">
-        <v>175</v>
+        <v>43</v>
       </c>
       <c r="M26">
-        <v>176</v>
+        <v>43</v>
       </c>
       <c r="N26">
-        <v>0.99</v>
+        <v>1</v>
       </c>
       <c r="O26">
-        <v>0.01000000000000001</v>
+        <v>0</v>
       </c>
       <c r="P26" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q26">
-        <v>119</v>
+        <v>20</v>
       </c>
     </row>
     <row r="27" spans="1:17">
@@ -1895,13 +1934,13 @@
         <v>32</v>
       </c>
       <c r="B27">
-        <v>0.375</v>
+        <v>0.4516129032258064</v>
       </c>
       <c r="C27">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="D27">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="E27">
         <v>0</v>
@@ -1913,19 +1952,19 @@
         <v>0</v>
       </c>
       <c r="H27">
-        <v>35</v>
+        <v>17</v>
       </c>
       <c r="J27" s="1" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="K27">
-        <v>0.5714285714285714</v>
+        <v>0.6818181818181818</v>
       </c>
       <c r="L27">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="M27">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="N27">
         <v>1</v>
@@ -1937,7 +1976,7 @@
         <v>0</v>
       </c>
       <c r="Q27">
-        <v>15</v>
+        <v>7</v>
       </c>
     </row>
     <row r="28" spans="1:17">
@@ -1945,13 +1984,13 @@
         <v>33</v>
       </c>
       <c r="B28">
-        <v>0.36</v>
+        <v>0.4358974358974359</v>
       </c>
       <c r="C28">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="D28">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="E28">
         <v>0</v>
@@ -1963,19 +2002,19 @@
         <v>0</v>
       </c>
       <c r="H28">
-        <v>48</v>
+        <v>22</v>
       </c>
       <c r="J28" s="1" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="K28">
-        <v>0.5638297872340425</v>
+        <v>0.6617647058823529</v>
       </c>
       <c r="L28">
-        <v>53</v>
+        <v>225</v>
       </c>
       <c r="M28">
-        <v>53</v>
+        <v>225</v>
       </c>
       <c r="N28">
         <v>1</v>
@@ -1987,7 +2026,7 @@
         <v>0</v>
       </c>
       <c r="Q28">
-        <v>41</v>
+        <v>115</v>
       </c>
     </row>
     <row r="29" spans="1:17">
@@ -1995,13 +2034,13 @@
         <v>34</v>
       </c>
       <c r="B29">
-        <v>0.3333333333333333</v>
+        <v>0.4266666666666667</v>
       </c>
       <c r="C29">
-        <v>13</v>
+        <v>32</v>
       </c>
       <c r="D29">
-        <v>13</v>
+        <v>32</v>
       </c>
       <c r="E29">
         <v>0</v>
@@ -2013,19 +2052,19 @@
         <v>0</v>
       </c>
       <c r="H29">
+        <v>43</v>
+      </c>
+      <c r="J29" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="K29">
+        <v>0.65</v>
+      </c>
+      <c r="L29">
         <v>26</v>
       </c>
-      <c r="J29" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="K29">
-        <v>0.5606694560669456</v>
-      </c>
-      <c r="L29">
-        <v>134</v>
-      </c>
       <c r="M29">
-        <v>134</v>
+        <v>26</v>
       </c>
       <c r="N29">
         <v>1</v>
@@ -2037,7 +2076,7 @@
         <v>0</v>
       </c>
       <c r="Q29">
-        <v>105</v>
+        <v>14</v>
       </c>
     </row>
     <row r="30" spans="1:17">
@@ -2045,13 +2084,13 @@
         <v>35</v>
       </c>
       <c r="B30">
-        <v>0.3090909090909091</v>
+        <v>0.4102564102564102</v>
       </c>
       <c r="C30">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D30">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E30">
         <v>0</v>
@@ -2063,19 +2102,19 @@
         <v>0</v>
       </c>
       <c r="H30">
-        <v>38</v>
+        <v>23</v>
       </c>
       <c r="J30" s="1" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="K30">
-        <v>0.5357142857142857</v>
+        <v>0.6285714285714286</v>
       </c>
       <c r="L30">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="M30">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="N30">
         <v>1</v>
@@ -2095,13 +2134,13 @@
         <v>36</v>
       </c>
       <c r="B31">
-        <v>0.2545454545454545</v>
+        <v>0.3571428571428572</v>
       </c>
       <c r="C31">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="D31">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="E31">
         <v>0</v>
@@ -2113,19 +2152,19 @@
         <v>0</v>
       </c>
       <c r="H31">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="J31" s="1" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="K31">
-        <v>0.5285714285714286</v>
+        <v>0.5983263598326359</v>
       </c>
       <c r="L31">
-        <v>37</v>
+        <v>143</v>
       </c>
       <c r="M31">
-        <v>37</v>
+        <v>143</v>
       </c>
       <c r="N31">
         <v>1</v>
@@ -2137,7 +2176,7 @@
         <v>0</v>
       </c>
       <c r="Q31">
-        <v>33</v>
+        <v>96</v>
       </c>
     </row>
     <row r="32" spans="1:17">
@@ -2145,13 +2184,13 @@
         <v>37</v>
       </c>
       <c r="B32">
-        <v>0.2341269841269841</v>
+        <v>0.3513513513513514</v>
       </c>
       <c r="C32">
-        <v>59</v>
+        <v>13</v>
       </c>
       <c r="D32">
-        <v>59</v>
+        <v>13</v>
       </c>
       <c r="E32">
         <v>0</v>
@@ -2163,19 +2202,19 @@
         <v>0</v>
       </c>
       <c r="H32">
-        <v>193</v>
+        <v>24</v>
       </c>
       <c r="J32" s="1" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="K32">
-        <v>0.5</v>
+        <v>0.5909090909090909</v>
       </c>
       <c r="L32">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="M32">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="N32">
         <v>1</v>
@@ -2187,7 +2226,7 @@
         <v>0</v>
       </c>
       <c r="Q32">
-        <v>20</v>
+        <v>9</v>
       </c>
     </row>
     <row r="33" spans="1:17">
@@ -2195,13 +2234,13 @@
         <v>38</v>
       </c>
       <c r="B33">
-        <v>0.1875</v>
+        <v>0.3454545454545455</v>
       </c>
       <c r="C33">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="D33">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="E33">
         <v>0</v>
@@ -2213,31 +2252,31 @@
         <v>0</v>
       </c>
       <c r="H33">
-        <v>65</v>
+        <v>36</v>
       </c>
       <c r="J33" s="1" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="K33">
-        <v>0.4943820224719101</v>
+        <v>0.5782312925170068</v>
       </c>
       <c r="L33">
-        <v>44</v>
+        <v>170</v>
       </c>
       <c r="M33">
-        <v>44</v>
+        <v>171</v>
       </c>
       <c r="N33">
-        <v>1</v>
+        <v>0.99</v>
       </c>
       <c r="O33">
-        <v>0</v>
+        <v>0.01000000000000001</v>
       </c>
       <c r="P33" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q33">
-        <v>45</v>
+        <v>124</v>
       </c>
     </row>
     <row r="34" spans="1:17">
@@ -2245,13 +2284,13 @@
         <v>39</v>
       </c>
       <c r="B34">
-        <v>0.1818181818181818</v>
+        <v>0.3090909090909091</v>
       </c>
       <c r="C34">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="D34">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="E34">
         <v>0</v>
@@ -2263,19 +2302,19 @@
         <v>0</v>
       </c>
       <c r="H34">
-        <v>63</v>
+        <v>38</v>
       </c>
       <c r="J34" s="1" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="K34">
-        <v>0.3555555555555556</v>
+        <v>0.5638297872340425</v>
       </c>
       <c r="L34">
-        <v>16</v>
+        <v>53</v>
       </c>
       <c r="M34">
-        <v>16</v>
+        <v>53</v>
       </c>
       <c r="N34">
         <v>1</v>
@@ -2287,7 +2326,7 @@
         <v>0</v>
       </c>
       <c r="Q34">
-        <v>29</v>
+        <v>41</v>
       </c>
     </row>
     <row r="35" spans="1:17">
@@ -2295,13 +2334,13 @@
         <v>40</v>
       </c>
       <c r="B35">
-        <v>0.1777777777777778</v>
+        <v>0.25</v>
       </c>
       <c r="C35">
-        <v>16</v>
+        <v>63</v>
       </c>
       <c r="D35">
-        <v>16</v>
+        <v>63</v>
       </c>
       <c r="E35">
         <v>0</v>
@@ -2313,19 +2352,19 @@
         <v>0</v>
       </c>
       <c r="H35">
-        <v>74</v>
+        <v>189</v>
       </c>
       <c r="J35" s="1" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="K35">
-        <v>0.3095238095238095</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="L35">
-        <v>13</v>
+        <v>28</v>
       </c>
       <c r="M35">
-        <v>13</v>
+        <v>28</v>
       </c>
       <c r="N35">
         <v>1</v>
@@ -2337,7 +2376,7 @@
         <v>0</v>
       </c>
       <c r="Q35">
-        <v>29</v>
+        <v>22</v>
       </c>
     </row>
     <row r="36" spans="1:17">
@@ -2345,13 +2384,13 @@
         <v>41</v>
       </c>
       <c r="B36">
-        <v>0.1394101876675603</v>
+        <v>0.2467532467532468</v>
       </c>
       <c r="C36">
-        <v>52</v>
+        <v>19</v>
       </c>
       <c r="D36">
-        <v>52</v>
+        <v>19</v>
       </c>
       <c r="E36">
         <v>0</v>
@@ -2363,19 +2402,19 @@
         <v>0</v>
       </c>
       <c r="H36">
-        <v>321</v>
+        <v>58</v>
       </c>
       <c r="J36" s="1" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="K36">
-        <v>0.2745098039215687</v>
+        <v>0.5538461538461539</v>
       </c>
       <c r="L36">
-        <v>14</v>
+        <v>36</v>
       </c>
       <c r="M36">
-        <v>14</v>
+        <v>36</v>
       </c>
       <c r="N36">
         <v>1</v>
@@ -2387,7 +2426,7 @@
         <v>0</v>
       </c>
       <c r="Q36">
-        <v>37</v>
+        <v>29</v>
       </c>
     </row>
     <row r="37" spans="1:17">
@@ -2395,13 +2434,13 @@
         <v>42</v>
       </c>
       <c r="B37">
-        <v>0.08</v>
+        <v>0.2</v>
       </c>
       <c r="C37">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="D37">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="E37">
         <v>0</v>
@@ -2413,19 +2452,19 @@
         <v>0</v>
       </c>
       <c r="H37">
-        <v>276</v>
+        <v>72</v>
       </c>
       <c r="J37" s="1" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="K37">
-        <v>0.273972602739726</v>
+        <v>0.5454545454545454</v>
       </c>
       <c r="L37">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="M37">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="N37">
         <v>1</v>
@@ -2437,7 +2476,7 @@
         <v>0</v>
       </c>
       <c r="Q37">
-        <v>53</v>
+        <v>15</v>
       </c>
     </row>
     <row r="38" spans="1:17">
@@ -2445,31 +2484,31 @@
         <v>43</v>
       </c>
       <c r="B38">
-        <v>0.008056719303899453</v>
+        <v>0.1875</v>
       </c>
       <c r="C38">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="D38">
-        <v>29</v>
+        <v>15</v>
       </c>
       <c r="E38">
-        <v>0.14</v>
+        <v>0</v>
       </c>
       <c r="F38">
-        <v>0.86</v>
+        <v>1</v>
       </c>
       <c r="G38" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H38">
-        <v>3078</v>
+        <v>65</v>
       </c>
       <c r="J38" s="1" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="K38">
-        <v>0.2542372881355932</v>
+        <v>0.5357142857142857</v>
       </c>
       <c r="L38">
         <v>15</v>
@@ -2487,7 +2526,7 @@
         <v>0</v>
       </c>
       <c r="Q38">
-        <v>44</v>
+        <v>13</v>
       </c>
     </row>
     <row r="39" spans="1:17">
@@ -2495,101 +2534,433 @@
         <v>44</v>
       </c>
       <c r="B39">
-        <v>0.006071929005137786</v>
+        <v>0.1662198391420912</v>
       </c>
       <c r="C39">
-        <v>13</v>
+        <v>62</v>
       </c>
       <c r="D39">
+        <v>62</v>
+      </c>
+      <c r="E39">
+        <v>0</v>
+      </c>
+      <c r="F39">
+        <v>1</v>
+      </c>
+      <c r="G39" t="b">
+        <v>0</v>
+      </c>
+      <c r="H39">
+        <v>311</v>
+      </c>
+      <c r="J39" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="K39">
+        <v>0.5285714285714286</v>
+      </c>
+      <c r="L39">
+        <v>37</v>
+      </c>
+      <c r="M39">
+        <v>37</v>
+      </c>
+      <c r="N39">
+        <v>1</v>
+      </c>
+      <c r="O39">
+        <v>0</v>
+      </c>
+      <c r="P39" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q39">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="40" spans="1:17">
+      <c r="A40" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B40">
+        <v>0.06333333333333334</v>
+      </c>
+      <c r="C40">
+        <v>19</v>
+      </c>
+      <c r="D40">
+        <v>19</v>
+      </c>
+      <c r="E40">
+        <v>0</v>
+      </c>
+      <c r="F40">
+        <v>1</v>
+      </c>
+      <c r="G40" t="b">
+        <v>0</v>
+      </c>
+      <c r="H40">
+        <v>281</v>
+      </c>
+      <c r="J40" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="K40">
+        <v>0.5</v>
+      </c>
+      <c r="L40">
+        <v>14</v>
+      </c>
+      <c r="M40">
+        <v>14</v>
+      </c>
+      <c r="N40">
+        <v>1</v>
+      </c>
+      <c r="O40">
+        <v>0</v>
+      </c>
+      <c r="P40" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q40">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="41" spans="1:17">
+      <c r="A41" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B41">
+        <v>0.01095360824742268</v>
+      </c>
+      <c r="C41">
+        <v>34</v>
+      </c>
+      <c r="D41">
+        <v>37</v>
+      </c>
+      <c r="E41">
+        <v>0.08</v>
+      </c>
+      <c r="F41">
+        <v>0.92</v>
+      </c>
+      <c r="G41" t="b">
+        <v>1</v>
+      </c>
+      <c r="H41">
+        <v>3070</v>
+      </c>
+      <c r="J41" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="K41">
+        <v>0.4761904761904762</v>
+      </c>
+      <c r="L41">
+        <v>20</v>
+      </c>
+      <c r="M41">
+        <v>20</v>
+      </c>
+      <c r="N41">
+        <v>1</v>
+      </c>
+      <c r="O41">
+        <v>0</v>
+      </c>
+      <c r="P41" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q41">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="42" spans="1:17">
+      <c r="A42" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B42">
+        <v>0.008890968647636874</v>
+      </c>
+      <c r="C42">
+        <v>19</v>
+      </c>
+      <c r="D42">
+        <v>25</v>
+      </c>
+      <c r="E42">
+        <v>0.24</v>
+      </c>
+      <c r="F42">
+        <v>0.76</v>
+      </c>
+      <c r="G42" t="b">
+        <v>1</v>
+      </c>
+      <c r="H42">
+        <v>2118</v>
+      </c>
+      <c r="J42" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="K42">
+        <v>0.4606741573033708</v>
+      </c>
+      <c r="L42">
+        <v>41</v>
+      </c>
+      <c r="M42">
+        <v>41</v>
+      </c>
+      <c r="N42">
+        <v>1</v>
+      </c>
+      <c r="O42">
+        <v>0</v>
+      </c>
+      <c r="P42" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q42">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="43" spans="1:17">
+      <c r="J43" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="K43">
+        <v>0.4313725490196079</v>
+      </c>
+      <c r="L43">
+        <v>22</v>
+      </c>
+      <c r="M43">
+        <v>22</v>
+      </c>
+      <c r="N43">
+        <v>1</v>
+      </c>
+      <c r="O43">
+        <v>0</v>
+      </c>
+      <c r="P43" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q43">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="44" spans="1:17">
+      <c r="J44" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="K44">
+        <v>0.4222222222222222</v>
+      </c>
+      <c r="L44">
+        <v>19</v>
+      </c>
+      <c r="M44">
+        <v>19</v>
+      </c>
+      <c r="N44">
+        <v>1</v>
+      </c>
+      <c r="O44">
+        <v>0</v>
+      </c>
+      <c r="P44" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q44">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="45" spans="1:17">
+      <c r="J45" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="K45">
+        <v>0.3561643835616438</v>
+      </c>
+      <c r="L45">
+        <v>26</v>
+      </c>
+      <c r="M45">
+        <v>26</v>
+      </c>
+      <c r="N45">
+        <v>1</v>
+      </c>
+      <c r="O45">
+        <v>0</v>
+      </c>
+      <c r="P45" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q45">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="46" spans="1:17">
+      <c r="J46" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="K46">
+        <v>0.2786885245901639</v>
+      </c>
+      <c r="L46">
+        <v>17</v>
+      </c>
+      <c r="M46">
+        <v>17</v>
+      </c>
+      <c r="N46">
+        <v>1</v>
+      </c>
+      <c r="O46">
+        <v>0</v>
+      </c>
+      <c r="P46" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q46">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="47" spans="1:17">
+      <c r="J47" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="K47">
+        <v>0.2711864406779661</v>
+      </c>
+      <c r="L47">
+        <v>16</v>
+      </c>
+      <c r="M47">
+        <v>16</v>
+      </c>
+      <c r="N47">
+        <v>1</v>
+      </c>
+      <c r="O47">
+        <v>0</v>
+      </c>
+      <c r="P47" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q47">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="48" spans="1:17">
+      <c r="J48" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="K48">
+        <v>0.265625</v>
+      </c>
+      <c r="L48">
+        <v>17</v>
+      </c>
+      <c r="M48">
+        <v>17</v>
+      </c>
+      <c r="N48">
+        <v>1</v>
+      </c>
+      <c r="O48">
+        <v>0</v>
+      </c>
+      <c r="P48" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q48">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="49" spans="10:17">
+      <c r="J49" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="K49">
+        <v>0.2564102564102564</v>
+      </c>
+      <c r="L49">
+        <v>20</v>
+      </c>
+      <c r="M49">
+        <v>20</v>
+      </c>
+      <c r="N49">
+        <v>1</v>
+      </c>
+      <c r="O49">
+        <v>0</v>
+      </c>
+      <c r="P49" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q49">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="50" spans="10:17">
+      <c r="J50" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="K50">
+        <v>0.1467889908256881</v>
+      </c>
+      <c r="L50">
+        <v>16</v>
+      </c>
+      <c r="M50">
+        <v>16</v>
+      </c>
+      <c r="N50">
+        <v>1</v>
+      </c>
+      <c r="O50">
+        <v>0</v>
+      </c>
+      <c r="P50" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q50">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="51" spans="10:17">
+      <c r="J51" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="K51">
+        <v>0.08108108108108109</v>
+      </c>
+      <c r="L51">
         <v>15</v>
       </c>
-      <c r="E39">
-        <v>0.13</v>
-      </c>
-      <c r="F39">
-        <v>0.87</v>
-      </c>
-      <c r="G39" t="b">
-        <v>1</v>
-      </c>
-      <c r="H39">
-        <v>2128</v>
-      </c>
-      <c r="J39" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="K39">
-        <v>0.2435897435897436</v>
-      </c>
-      <c r="L39">
-        <v>19</v>
-      </c>
-      <c r="M39">
-        <v>19</v>
-      </c>
-      <c r="N39">
-        <v>1</v>
-      </c>
-      <c r="O39">
-        <v>0</v>
-      </c>
-      <c r="P39" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q39">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="40" spans="1:17">
-      <c r="J40" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="K40">
-        <v>0.1376146788990826</v>
-      </c>
-      <c r="L40">
+      <c r="M51">
         <v>15</v>
       </c>
-      <c r="M40">
-        <v>15</v>
-      </c>
-      <c r="N40">
-        <v>1</v>
-      </c>
-      <c r="O40">
-        <v>0</v>
-      </c>
-      <c r="P40" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q40">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="41" spans="1:17">
-      <c r="J41" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="K41">
-        <v>0.005325814536340852</v>
-      </c>
-      <c r="L41">
-        <v>17</v>
-      </c>
-      <c r="M41">
-        <v>26</v>
-      </c>
-      <c r="N41">
-        <v>0.65</v>
-      </c>
-      <c r="O41">
-        <v>0.35</v>
-      </c>
-      <c r="P41" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q41">
-        <v>3175</v>
+      <c r="N51">
+        <v>1</v>
+      </c>
+      <c r="O51">
+        <v>0</v>
+      </c>
+      <c r="P51" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q51">
+        <v>170</v>
       </c>
     </row>
   </sheetData>
